--- a/外部設計/04_機能一覧_A５.xlsx
+++ b/外部設計/04_機能一覧_A５.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB7D74-0B1D-4EDD-8843-0B469BD45AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D95ED3B-A5A3-4C64-8B5B-21B1CE1B81B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,22 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日用品、家事情報任意の登録</t>
-    <rPh sb="0" eb="3">
-      <t>ニチヨウヒン</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>カジジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一覧表示機能</t>
     <rPh sb="0" eb="4">
       <t>イチランヒョウジ</t>
@@ -394,23 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「家事の種類」「目標頻度」登録</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「実施日」「目標頻度」の編集</t>
-    <rPh sb="1" eb="4">
-      <t>ジッシビ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>モクヒョウヒンド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日用品の「項目名」「商品名」「値段」「容量」「使い始め」「使い終わり」の登録</t>
     <rPh sb="0" eb="3">
       <t>ニチヨウヒン</t>
@@ -473,50 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2回目以降前回までの使用期間の平均と使い始めの日付から次のなくなる日を予測する</t>
-    <rPh sb="1" eb="5">
-      <t>カイメイコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼンカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヨソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモ表示</t>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定した日付の家事情報、日用品情報の詳細表示</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -616,38 +539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費予定金額の合計値(1か月分)を表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダー上で商品の値段を日用品の消費終了予定日に表示する</t>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダー上でタスク表示する</t>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支出予定金額表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン時のポップアップ表示</t>
     <rPh sb="4" eb="5">
       <t>ジ</t>
@@ -689,6 +580,172 @@
   </si>
   <si>
     <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「家事の種類」「目標頻度」「メモ」登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「実施日」「目標頻度」「メモ」の編集</t>
+    <rPh sb="1" eb="4">
+      <t>ジッシビ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>モクヒョウヒンド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目以降、前回までの使用期間の平均と使い始めの日付から消費終了予定日を予測する</t>
+    <rPh sb="1" eb="5">
+      <t>カイメイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="28" eb="35">
+      <t>ショウヒシュウリョウヨテイビ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回購入したものと同じものを買ったと仮定して、消費予定金額の合計値(1か月分)を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品、家事情報任意の登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧の詳細表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧のうち指定した項目の詳細を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"タスク実施予定日"と"日用品の消費終了予定日"にカレンダー上にそれぞれアイコン表示、日付をクリックすると詳細表示</t>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヨテイビ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ヨテイビ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク・支出予定金額表示</t>
+    <rPh sb="4" eb="6">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヨテイキンガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1147,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1248,14 +1305,14 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -1270,14 +1327,14 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -1292,14 +1349,14 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -1314,14 +1371,14 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1336,14 +1393,14 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1358,14 +1415,14 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="39" x14ac:dyDescent="0.2">
@@ -1380,17 +1437,17 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1401,20 +1458,20 @@
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="52" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1426,17 +1483,17 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1448,17 +1505,17 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1470,14 +1527,14 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1488,21 +1545,21 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1510,21 +1567,21 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1536,14 +1593,14 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -1554,18 +1611,18 @@
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -1576,18 +1633,18 @@
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -1598,21 +1655,21 @@
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1620,18 +1677,18 @@
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -1741,18 +1798,6 @@
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/外部設計/04_機能一覧_A５.xlsx
+++ b/外部設計/04_機能一覧_A５.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D95ED3B-A5A3-4C64-8B5B-21B1CE1B81B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D59C9-2C5F-4B8E-A8E4-926B9AB44EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -746,6 +746,10 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1206,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1220,7 @@
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.6328125" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="34" style="1" bestFit="1" customWidth="1"/>
@@ -1347,7 +1351,9 @@
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1369,7 +1375,9 @@
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1399,9 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1413,7 +1423,9 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1503,7 +1515,9 @@
       <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1525,7 +1539,9 @@
       <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>60</v>
       </c>
@@ -1547,7 +1563,9 @@
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
